--- a/figs_src/data_all_hpca.xlsx
+++ b/figs_src/data_all_hpca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14850" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14850" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t>DIFT</t>
   </si>
@@ -230,6 +230,30 @@
   <si>
     <t>6 runs</t>
   </si>
+  <si>
+    <t>200m inst instead of 2bn</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>MICRO14 overheads</t>
+  </si>
+  <si>
+    <t>MICRO14 coverage</t>
+  </si>
+  <si>
+    <t>HPCA15 coverage (200m)</t>
+  </si>
+  <si>
+    <t>HPCA15 overheads (200m)</t>
+  </si>
+  <si>
+    <t>HPCA15 overheads (200m inst)</t>
+  </si>
+  <si>
+    <t>HPCA15 coverage (200m inst)</t>
+  </si>
 </sst>
 </file>
 
@@ -267,12 +291,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -316,6 +346,16 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,11 +1042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151750912"/>
-        <c:axId val="151773184"/>
+        <c:axId val="152733952"/>
+        <c:axId val="152756224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151750912"/>
+        <c:axId val="152733952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151773184"/>
+        <c:crossAx val="152756224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151773184"/>
+        <c:axId val="152756224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151750912"/>
+        <c:crossAx val="152733952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,11 +1844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153975808"/>
-        <c:axId val="153977600"/>
+        <c:axId val="155028480"/>
+        <c:axId val="155030272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153975808"/>
+        <c:axId val="155028480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153977600"/>
+        <c:crossAx val="155030272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153977600"/>
+        <c:axId val="155030272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1855,7 +1895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153975808"/>
+        <c:crossAx val="155028480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,11 +2334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154068864"/>
-        <c:axId val="154070400"/>
+        <c:axId val="155121536"/>
+        <c:axId val="155123072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154068864"/>
+        <c:axId val="155121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154070400"/>
+        <c:crossAx val="155123072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2315,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154070400"/>
+        <c:axId val="155123072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2339,14 +2379,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154068864"/>
+        <c:crossAx val="155121536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2460,7 +2499,7 @@
                   <c:v>4.7145224509999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>3.1125854890000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.306092995</c:v>
@@ -2518,7 +2557,7 @@
                   <c:v>7.1271726580000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>8.256202</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0538627039999999</c:v>
@@ -2573,10 +2612,10 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>4.958189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>5.3545119999999997</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0602838000000001</c:v>
@@ -2692,7 +2731,7 @@
                   <c:v>4.6564346859999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>5.7836189999999998</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.1280897160000001</c:v>
@@ -2750,7 +2789,7 @@
                   <c:v>4.7046409450000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>3.7457660000000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.1712283459999999</c:v>
@@ -2924,7 +2963,7 @@
                   <c:v>5.6462669849999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>4.9528981859999996</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0667325050000001</c:v>
@@ -2979,10 +3018,10 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.5624491840987074</c:v>
+                  <c:v>4.3061679423933619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>3.1392869378396293</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.098458793150149</c:v>
@@ -3000,11 +3039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151850368"/>
-        <c:axId val="151864448"/>
+        <c:axId val="152837504"/>
+        <c:axId val="152847488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151850368"/>
+        <c:axId val="152837504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151864448"/>
+        <c:crossAx val="152847488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,10 +3060,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151864448"/>
+        <c:axId val="152847488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3060,7 +3098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151850368"/>
+        <c:crossAx val="152837504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3208,7 +3246,7 @@
                   <c:v>0.5242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73089999999999999</c:v>
+                  <c:v>0.77649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.94399999999999995</c:v>
@@ -3217,7 +3255,7 @@
                   <c:v>0.97319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57650000000000001</c:v>
+                  <c:v>0.81679999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3229,7 +3267,7 @@
                   <c:v>0.77370000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.82188888888888889</c:v>
+                  <c:v>0.85365555555555561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3346,7 @@
                   <c:v>0.54790000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.79730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9466</c:v>
@@ -3317,7 +3355,7 @@
                   <c:v>0.98119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58309999999999995</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3329,7 +3367,7 @@
                   <c:v>0.79710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.75128888888888889</c:v>
+                  <c:v>0.86864444444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,7 +3446,7 @@
                   <c:v>0.57989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>0.83620000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3417,7 +3455,7 @@
                   <c:v>0.98370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.87960000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3429,7 +3467,7 @@
                   <c:v>0.81840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.85984444444444441</c:v>
+                  <c:v>0.89304444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,7 +3546,7 @@
                   <c:v>0.67759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95020000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3517,7 +3555,7 @@
                   <c:v>0.99070000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66169999999999995</c:v>
+                  <c:v>0.98919999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3529,7 +3567,7 @@
                   <c:v>0.89059999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.80218888888888895</c:v>
+                  <c:v>0.94415555555555564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +3655,7 @@
                   <c:v>0.99529999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71530000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3629,7 +3667,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.94521111111111111</c:v>
+                  <c:v>0.97684444444444429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,7 +3755,7 @@
                   <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76729999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3729,7 +3767,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.96740000000000004</c:v>
+                  <c:v>0.99325555555555545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,11 +3782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153007616"/>
-        <c:axId val="153009152"/>
+        <c:axId val="154056192"/>
+        <c:axId val="154057728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153007616"/>
+        <c:axId val="154056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153009152"/>
+        <c:crossAx val="154057728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3776,7 +3814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153009152"/>
+        <c:axId val="154057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3814,7 +3852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153007616"/>
+        <c:crossAx val="154056192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4488,11 +4526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153247104"/>
-        <c:axId val="153257088"/>
+        <c:axId val="154295680"/>
+        <c:axId val="154305664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153247104"/>
+        <c:axId val="154295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,7 +4550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153257088"/>
+        <c:crossAx val="154305664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4520,7 +4558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153257088"/>
+        <c:axId val="154305664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4544,13 +4582,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153247104"/>
+        <c:crossAx val="154295680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5024,11 +5063,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153199744"/>
-        <c:axId val="153201280"/>
+        <c:axId val="154248704"/>
+        <c:axId val="154250240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153199744"/>
+        <c:axId val="154248704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153201280"/>
+        <c:crossAx val="154250240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,7 +5095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153201280"/>
+        <c:axId val="154250240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,13 +5123,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153199744"/>
+        <c:crossAx val="154248704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5211,7 +5251,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5220,7 +5260,7 @@
             <c:numRef>
               <c:f>bc_policies!$B$2:$K$2</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.91379999999999995</c:v>
@@ -5249,8 +5289,8 @@
                 <c:pt idx="8">
                   <c:v>0.78669999999999995</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83</c:v>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.81503135115597636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,7 +5351,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5320,7 +5360,7 @@
             <c:numRef>
               <c:f>bc_policies!$B$3:$K$3</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.91190000000000004</c:v>
@@ -5349,8 +5389,8 @@
                 <c:pt idx="8">
                   <c:v>0.81559999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.9136389686081553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5365,11 +5405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153497984"/>
-        <c:axId val="153499520"/>
+        <c:axId val="154614016"/>
+        <c:axId val="154615808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153497984"/>
+        <c:axId val="154614016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153499520"/>
+        <c:crossAx val="154615808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5386,7 +5426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153499520"/>
+        <c:axId val="154615808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5410,13 +5450,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153497984"/>
+        <c:crossAx val="154614016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5689,11 +5730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153511040"/>
-        <c:axId val="153512576"/>
+        <c:axId val="154657920"/>
+        <c:axId val="154659456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153511040"/>
+        <c:axId val="154657920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153512576"/>
+        <c:crossAx val="154659456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5710,7 +5751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153512576"/>
+        <c:axId val="154659456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -5735,13 +5776,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153511040"/>
+        <c:crossAx val="154657920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,7 +5905,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5875,34 +5917,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91379999999999995</c:v>
+                  <c:v>0.43049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53779999999999994</c:v>
+                  <c:v>0.22689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75449999999999995</c:v>
+                  <c:v>0.44140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98899999999999999</c:v>
+                  <c:v>0.82330000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96160000000000001</c:v>
+                  <c:v>0.39529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58260000000000001</c:v>
+                  <c:v>0.4148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.49149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9819</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78669999999999995</c:v>
+                  <c:v>0.3533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83</c:v>
+                  <c:v>0.46348812893673524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5963,7 +6005,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5975,34 +6017,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91190000000000004</c:v>
+                  <c:v>0.46389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81569999999999998</c:v>
+                  <c:v>0.27129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73550000000000004</c:v>
+                  <c:v>0.47710000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99739999999999995</c:v>
+                  <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>0.42049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99680000000000002</c:v>
+                  <c:v>0.44019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.49159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81559999999999999</c:v>
+                  <c:v>0.37880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                  <c:v>0.48897001622478758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6017,11 +6059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153118208"/>
-        <c:axId val="153119744"/>
+        <c:axId val="154170880"/>
+        <c:axId val="154172416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153118208"/>
+        <c:axId val="154170880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6030,7 +6072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153119744"/>
+        <c:crossAx val="154172416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6038,7 +6080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153119744"/>
+        <c:axId val="154172416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6062,13 +6104,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153118208"/>
+        <c:crossAx val="154170880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6331,11 +6374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153792896"/>
-        <c:axId val="153794432"/>
+        <c:axId val="154845568"/>
+        <c:axId val="154847104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153792896"/>
+        <c:axId val="154845568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,7 +6387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153794432"/>
+        <c:crossAx val="154847104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6352,7 +6395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153794432"/>
+        <c:axId val="154847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6375,13 +6418,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153792896"/>
+        <c:crossAx val="154845568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6441,7 +6485,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="266" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="325" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" r:id="rId1"/>
@@ -6477,7 +6521,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6489,7 +6533,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6501,7 +6545,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6513,7 +6557,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="285" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6525,7 +6569,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="285" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6537,7 +6581,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="285" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6549,7 +6593,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="285" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6561,7 +6605,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3081338" cy="2176463"/>
+    <xdr:ext cx="2928938" cy="2024063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6588,7 +6632,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927684" cy="2028658"/>
+    <xdr:ext cx="2927819" cy="2026460"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6615,7 +6659,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3083092" cy="2180724"/>
+    <xdr:ext cx="2927838" cy="2028092"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6696,7 +6740,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6285204" cy="2183622"/>
+    <xdr:ext cx="6124937" cy="2025570"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6723,7 +6767,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6285204" cy="2183622"/>
+    <xdr:ext cx="6124937" cy="2025570"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6750,7 +6794,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6285204" cy="2183622"/>
+    <xdr:ext cx="6125766" cy="2024063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6777,7 +6821,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927684" cy="2028658"/>
+    <xdr:ext cx="2927819" cy="2026460"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6804,7 +6848,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927684" cy="2028658"/>
+    <xdr:ext cx="2927819" cy="2026460"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7087,7 +7131,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927684" cy="2028658"/>
+    <xdr:ext cx="2927819" cy="2026460"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9315,7 +9359,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9368,8 +9412,8 @@
       <c r="C2" s="3">
         <v>7.1271726580000001</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.9</v>
+      <c r="D2" s="16">
+        <v>4.958189</v>
       </c>
       <c r="E2" s="3">
         <v>1.745944962</v>
@@ -9391,11 +9435,11 @@
       </c>
       <c r="K2" s="2">
         <f>GEOMEAN(B2:J2)</f>
-        <v>3.5624491840987074</v>
+        <v>4.3061679423933619</v>
       </c>
       <c r="L2" s="5">
         <f>MIN(B2:J2)</f>
-        <v>0.9</v>
+        <v>1.745944962</v>
       </c>
       <c r="M2" s="5">
         <f>MAX(B2:J2)</f>
@@ -9407,22 +9451,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.9</v>
+        <v>3.1125854890000002</v>
+      </c>
+      <c r="C3" s="16">
+        <v>8.256202</v>
+      </c>
+      <c r="D3" s="16">
+        <v>5.3545119999999997</v>
       </c>
       <c r="E3" s="3">
         <v>1.550173698</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.9</v>
+      <c r="F3" s="16">
+        <v>5.7836189999999998</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3.7457660000000002</v>
       </c>
       <c r="H3" s="3">
         <v>1.0804225220000001</v>
@@ -9431,18 +9475,19 @@
         <v>1.1975231289999999</v>
       </c>
       <c r="J3" s="3">
-        <v>0.9</v>
+        <v>4.9528981859999996</v>
       </c>
       <c r="K3" s="2">
-        <v>0.9</v>
+        <f>GEOMEAN(B3:J3)</f>
+        <v>3.1392869378396293</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ref="L3:L4" si="0">MIN(B3:J3)</f>
-        <v>0.9</v>
+        <v>1.0804225220000001</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M4" si="1">MAX(B3:J3)</f>
-        <v>1.550173698</v>
+        <v>8.256202</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9539,15 +9584,18 @@
       </c>
     </row>
     <row r="8" spans="1:13">
+      <c r="A8" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="K8" s="8">
         <f>1-K2/full_mon!K2</f>
-        <v>0.65038422202265278</v>
+        <v>0.57739628624012007</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="K9" s="8">
         <f>1-K3/full_mon!K3</f>
-        <v>0.94261379343507645</v>
+        <v>0.79983136813174327</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9569,10 +9617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9622,8 +9670,8 @@
       <c r="C2" s="11">
         <v>0.5242</v>
       </c>
-      <c r="D2" s="11">
-        <v>0.73089999999999999</v>
+      <c r="D2" s="18">
+        <v>0.77649999999999997</v>
       </c>
       <c r="E2" s="11">
         <v>0.94399999999999995</v>
@@ -9631,8 +9679,8 @@
       <c r="F2" s="11">
         <v>0.97319999999999995</v>
       </c>
-      <c r="G2" s="11">
-        <v>0.57650000000000001</v>
+      <c r="G2" s="18">
+        <v>0.81679999999999997</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
@@ -9645,7 +9693,7 @@
       </c>
       <c r="K2" s="10">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.82188888888888889</v>
+        <v>0.85365555555555561</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9658,8 +9706,8 @@
       <c r="C3" s="11">
         <v>0.54790000000000005</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
+      <c r="D3" s="18">
+        <v>0.79730000000000001</v>
       </c>
       <c r="E3" s="11">
         <v>0.9466</v>
@@ -9667,8 +9715,8 @@
       <c r="F3" s="11">
         <v>0.98119999999999996</v>
       </c>
-      <c r="G3" s="11">
-        <v>0.58309999999999995</v>
+      <c r="G3" s="18">
+        <v>0.84199999999999997</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -9681,7 +9729,7 @@
       </c>
       <c r="K3" s="10">
         <f t="shared" ref="K3:K7" si="0">AVERAGE(B3:J3)</f>
-        <v>0.75128888888888889</v>
+        <v>0.86864444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9694,8 +9742,8 @@
       <c r="C4" s="11">
         <v>0.57989999999999997</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.81200000000000006</v>
+      <c r="D4" s="18">
+        <v>0.83620000000000005</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -9703,8 +9751,8 @@
       <c r="F4" s="11">
         <v>0.98370000000000002</v>
       </c>
-      <c r="G4" s="11">
-        <v>0.60499999999999998</v>
+      <c r="G4" s="18">
+        <v>0.87960000000000005</v>
       </c>
       <c r="H4" s="11">
         <v>1</v>
@@ -9717,7 +9765,7 @@
       </c>
       <c r="K4" s="10">
         <f t="shared" si="0"/>
-        <v>0.85984444444444441</v>
+        <v>0.89304444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9730,8 +9778,8 @@
       <c r="C5" s="11">
         <v>0.67759999999999998</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
+      <c r="D5" s="18">
+        <v>0.95020000000000004</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -9739,8 +9787,8 @@
       <c r="F5" s="11">
         <v>0.99070000000000003</v>
       </c>
-      <c r="G5" s="11">
-        <v>0.66169999999999995</v>
+      <c r="G5" s="18">
+        <v>0.98919999999999997</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -9753,7 +9801,7 @@
       </c>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>0.80218888888888895</v>
+        <v>0.94415555555555564</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9766,7 +9814,7 @@
       <c r="C6" s="11">
         <v>0.79630000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="11">
@@ -9775,8 +9823,8 @@
       <c r="F6" s="11">
         <v>0.99529999999999996</v>
       </c>
-      <c r="G6" s="11">
-        <v>0.71530000000000005</v>
+      <c r="G6" s="18">
+        <v>1</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -9789,7 +9837,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>0.94521111111111111</v>
+        <v>0.97684444444444429</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9802,7 +9850,7 @@
       <c r="C7" s="11">
         <v>0.94030000000000002</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="11">
@@ -9811,8 +9859,8 @@
       <c r="F7" s="11">
         <v>0.999</v>
       </c>
-      <c r="G7" s="11">
-        <v>0.76729999999999998</v>
+      <c r="G7" s="18">
+        <v>1</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -9825,14 +9873,14 @@
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>0.96740000000000004</v>
+        <v>0.99325555555555545</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -9845,14 +9893,58 @@
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>0.73089999999999999</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>0.57650000000000001</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.58309999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.66169999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.71530000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.76729999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10501,15 +10593,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -10538,7 +10633,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -10551,40 +10646,43 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="14">
         <v>0.91379999999999995</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="14">
         <v>0.53779999999999994</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="14">
         <v>0.75449999999999995</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="14">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="14">
         <v>0.96160000000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="14">
         <v>0.58260000000000001</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="14">
         <v>0.9819</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="14">
         <v>0.78669999999999995</v>
       </c>
       <c r="K2" s="8">
-        <v>0.83</v>
+        <f>GEOMEAN(B2:J2)</f>
+        <v>0.81503135115597636</v>
       </c>
       <c r="L2" s="8">
-        <v>0.54</v>
+        <f>MIN(B2:J2)</f>
+        <v>0.53779999999999994</v>
       </c>
       <c r="M2" s="8">
+        <f>MAX(B2:J2)</f>
         <v>1</v>
       </c>
     </row>
@@ -10592,40 +10690,43 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="14">
         <v>0.91190000000000004</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="14">
         <v>0.81569999999999998</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>0.73550000000000004</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <v>0.99739999999999995</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="14">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="14">
         <v>0.99680000000000002</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="14">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="14">
         <v>0.81559999999999999</v>
       </c>
       <c r="K3" s="8">
-        <v>0.92</v>
+        <f>GEOMEAN(B3:J3)</f>
+        <v>0.9136389686081553</v>
       </c>
       <c r="L3" s="8">
-        <v>0.74</v>
+        <f>MIN(B3:J3)</f>
+        <v>0.73550000000000004</v>
       </c>
       <c r="M3" s="8">
+        <f>MAX(B3:J3)</f>
         <v>1</v>
       </c>
     </row>
@@ -10702,12 +10803,15 @@
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="9">
-        <v>-0.16</v>
+        <f>AVERAGE(B6:J6)</f>
+        <v>-0.15747777777777777</v>
       </c>
       <c r="L6" s="8">
-        <v>-0.47</v>
+        <f>MIN(B6:J6)</f>
+        <v>-0.46989999999999998</v>
       </c>
       <c r="M6" s="8">
+        <f>MAX(B6:J6)</f>
         <v>0.04</v>
       </c>
     </row>
@@ -10743,13 +10847,268 @@
         <v>0.10340000000000001</v>
       </c>
       <c r="K7" s="9">
-        <v>2.2200000000000002</v>
+        <f>AVERAGE(B7:J7)</f>
+        <v>2.2157888888888895</v>
       </c>
       <c r="L7" s="8">
-        <v>-0.44</v>
+        <f>MIN(B7:J7)</f>
+        <v>-0.44119999999999998</v>
       </c>
       <c r="M7" s="8">
-        <v>15.14</v>
+        <f>MAX(B7:J7)</f>
+        <v>15.1409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-0.38080000000000003</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-5.3199999999999997E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H11" s="9">
+        <v>-0.44119999999999998</v>
+      </c>
+      <c r="I11" s="9">
+        <v>-0.46989999999999998</v>
+      </c>
+      <c r="J11" s="9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="9">
+        <v>0.2697</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.1905999999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-1.8499999999999999E-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-0.29210000000000003</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.1740999999999999</v>
+      </c>
+      <c r="G12" s="9">
+        <v>15.1409</v>
+      </c>
+      <c r="H12" s="9">
+        <v>-0.44119999999999998</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-0.18479999999999999</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.10340000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="14">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.9819</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.78669999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="14">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.81559999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="9">
+        <v>4.4506527999999997E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-0.29935793399999999</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3.600838E-2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-0.12163595100000001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-3.3307832000000002E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-6.1883876999999997E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-0.493118212</v>
+      </c>
+      <c r="I17" s="9">
+        <v>-0.37364656899999998</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4.4596485999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="9">
+        <v>5.4728245000000002E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6.7562023790000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.108630981</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.149038591</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4.38289185</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.2387061849999998</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-0.493118212</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.091423579</v>
+      </c>
+      <c r="J18" s="9">
+        <v>-0.34753614799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="8">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.81740000000000002</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.78080000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="8">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.76139999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -10759,10 +11118,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10796,7 +11155,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -10810,40 +11169,43 @@
         <v>30</v>
       </c>
       <c r="B2" s="8">
-        <v>0.91379999999999995</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="C2" s="8">
-        <v>0.53779999999999994</v>
+        <v>0.22689999999999999</v>
       </c>
       <c r="D2" s="8">
-        <v>0.75449999999999995</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="E2" s="8">
-        <v>0.98899999999999999</v>
+        <v>0.82330000000000003</v>
       </c>
       <c r="F2" s="8">
-        <v>0.96160000000000001</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="G2" s="8">
-        <v>0.58260000000000001</v>
+        <v>0.4148</v>
       </c>
       <c r="H2" s="8">
-        <v>1</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="I2" s="8">
-        <v>0.9819</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="J2" s="8">
-        <v>0.78669999999999995</v>
+        <v>0.3533</v>
       </c>
       <c r="K2" s="8">
-        <v>0.83</v>
+        <f>GEOMEAN(B2:J2)</f>
+        <v>0.46348812893673524</v>
       </c>
       <c r="L2" s="8">
-        <v>0.54</v>
+        <f>MIN(B2:J2)</f>
+        <v>0.22689999999999999</v>
       </c>
       <c r="M2" s="8">
-        <v>1</v>
+        <f>MAX(B2:J2)</f>
+        <v>0.97660000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10851,40 +11213,43 @@
         <v>29</v>
       </c>
       <c r="B3" s="8">
-        <v>0.91190000000000004</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="C3" s="8">
-        <v>0.81569999999999998</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="D3" s="8">
-        <v>0.73550000000000004</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="E3" s="8">
-        <v>0.99739999999999995</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="F3" s="8">
-        <v>0.99990000000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G3" s="8">
-        <v>0.99680000000000002</v>
+        <v>0.44019999999999998</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="J3" s="8">
-        <v>0.81559999999999999</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="K3" s="8">
-        <v>0.92</v>
+        <f>GEOMEAN(B3:J3)</f>
+        <v>0.48897001622478758</v>
       </c>
       <c r="L3" s="8">
-        <v>0.74</v>
+        <f>MIN(B3:J3)</f>
+        <v>0.27129999999999999</v>
       </c>
       <c r="M3" s="8">
-        <v>1</v>
+        <f>MAX(B3:J3)</f>
+        <v>0.97660000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10972,13 +11337,16 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="K6" s="8">
-        <v>-0.05</v>
+        <f>AVERAGE(B6:J6)</f>
+        <v>-4.9188888888888886E-2</v>
       </c>
       <c r="L6" s="8">
-        <v>-0.19</v>
+        <f>MIN(B6:J6)</f>
+        <v>-0.18629999999999999</v>
       </c>
       <c r="M6" s="8">
-        <v>0.01</v>
+        <f>MAX(B6:J6)</f>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11013,13 +11381,268 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="K7" s="8">
-        <v>-0.05</v>
+        <f>AVERAGE(B7:J7)</f>
+        <v>-5.0588888888888885E-2</v>
       </c>
       <c r="L7" s="8">
-        <v>-0.19</v>
+        <f>MIN(B7:J7)</f>
+        <v>-0.186</v>
       </c>
       <c r="M7" s="8">
-        <v>0.01</v>
+        <f>MAX(B7:J7)</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="8">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.4148</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.3533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="8">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-6.6600000000000006E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-0.18629999999999999</v>
+      </c>
+      <c r="I15" s="8">
+        <v>-8.2799999999999999E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-0.186</v>
+      </c>
+      <c r="I16" s="8">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="8">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.4708</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.40339999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="8">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.3211</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.39250000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-6.6600000000000006E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="F22" s="8">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>-0.18629999999999999</v>
+      </c>
+      <c r="I22" s="8">
+        <v>-8.2799999999999999E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>-0.186</v>
+      </c>
+      <c r="I23" s="8">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>9.7000000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11384,7 +12007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/figs_src/data_all_hpca.xlsx
+++ b/figs_src/data_all_hpca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14850" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="7905" yWindow="-15" windowWidth="7980" windowHeight="8970" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="4" r:id="rId1"/>
@@ -13,29 +13,31 @@
     <sheet name="filter_mon_graph" sheetId="7" r:id="rId4"/>
     <sheet name="bc" sheetId="8" r:id="rId5"/>
     <sheet name="bc_graph" sheetId="9" r:id="rId6"/>
-    <sheet name="umc" sheetId="10" r:id="rId7"/>
-    <sheet name="umc_graph" sheetId="11" r:id="rId8"/>
-    <sheet name="insttype" sheetId="22" r:id="rId9"/>
-    <sheet name="insttype_graph" sheetId="23" r:id="rId10"/>
-    <sheet name="bc_policies" sheetId="14" r:id="rId11"/>
-    <sheet name="bc_policy_coverage_graph" sheetId="15" r:id="rId12"/>
-    <sheet name="bc_policy_exec_time_graph" sheetId="16" r:id="rId13"/>
-    <sheet name="umc_policies" sheetId="17" r:id="rId14"/>
-    <sheet name="umc_policy_coverage_graph" sheetId="19" r:id="rId15"/>
-    <sheet name="umc_policy_exec_time_graph" sheetId="18" r:id="rId16"/>
-    <sheet name="prob_1m_20140324" sheetId="20" r:id="rId17"/>
-    <sheet name="prob_1m_graph" sheetId="21" r:id="rId18"/>
-    <sheet name="multirun" sheetId="1" r:id="rId19"/>
-    <sheet name="multirun_graph" sheetId="24" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId21"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId22"/>
+    <sheet name="bc_graph_stacked" sheetId="25" r:id="rId7"/>
+    <sheet name="umc" sheetId="10" r:id="rId8"/>
+    <sheet name="umc_graph" sheetId="11" r:id="rId9"/>
+    <sheet name="umc_graph_stacked" sheetId="26" r:id="rId10"/>
+    <sheet name="insttype" sheetId="22" r:id="rId11"/>
+    <sheet name="insttype_graph" sheetId="23" r:id="rId12"/>
+    <sheet name="bc_policies" sheetId="14" r:id="rId13"/>
+    <sheet name="bc_policy_coverage_graph" sheetId="15" r:id="rId14"/>
+    <sheet name="bc_policy_exec_time_graph" sheetId="16" r:id="rId15"/>
+    <sheet name="umc_policies" sheetId="17" r:id="rId16"/>
+    <sheet name="umc_policy_coverage_graph" sheetId="19" r:id="rId17"/>
+    <sheet name="umc_policy_exec_time_graph" sheetId="18" r:id="rId18"/>
+    <sheet name="prob_1m_20140324" sheetId="20" r:id="rId19"/>
+    <sheet name="prob_1m_graph" sheetId="21" r:id="rId20"/>
+    <sheet name="multirun" sheetId="1" r:id="rId21"/>
+    <sheet name="multirun_graph" sheetId="24" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId23"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
   <si>
     <t>DIFT</t>
   </si>
@@ -129,10 +131,6 @@
   </si>
   <si>
     <t>average</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
   </si>
   <si>
     <t>Source-Only Dropping</t>
@@ -207,18 +205,6 @@
     <t>IMP</t>
   </si>
   <si>
-    <t>300% Overhead</t>
-  </si>
-  <si>
-    <t>10% Overhead</t>
-  </si>
-  <si>
-    <t>50% Overhead</t>
-  </si>
-  <si>
-    <t>100% Overhead</t>
-  </si>
-  <si>
     <t>3 runs</t>
   </si>
   <si>
@@ -253,6 +239,33 @@
   </si>
   <si>
     <t>HPCA15 coverage (200m inst)</t>
+  </si>
+  <si>
+    <t>2bn results</t>
+  </si>
+  <si>
+    <t>1.1x</t>
+  </si>
+  <si>
+    <t>1.5x</t>
+  </si>
+  <si>
+    <t>2.0x</t>
+  </si>
+  <si>
+    <t>4.0x</t>
+  </si>
+  <si>
+    <t>6.0x</t>
+  </si>
+  <si>
+    <t>8.0x Overhead Target</t>
+  </si>
+  <si>
+    <t>4.0x Overhead Target</t>
+  </si>
+  <si>
+    <t>6.0x Overhead Target</t>
   </si>
 </sst>
 </file>
@@ -321,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -354,6 +367,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,11 +1058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152733952"/>
-        <c:axId val="152756224"/>
+        <c:axId val="151427328"/>
+        <c:axId val="151449600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152733952"/>
+        <c:axId val="151427328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152756224"/>
+        <c:crossAx val="151449600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152756224"/>
+        <c:axId val="151449600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152733952"/>
+        <c:crossAx val="151427328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,11 +1198,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>prob_1m_20140324!$B$1</c:f>
+              <c:f>umc_policies!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 run</c:v>
+                  <c:v>Unrestricted Dropping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1201,71 +1217,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
+              <c:f>umc_policies!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
+                  <c:v>bzip2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gcc </c:v>
+                  <c:v>gcc</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mcf </c:v>
+                  <c:v>mcf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>gobmk </c:v>
+                  <c:v>gobmk</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>hmmer </c:v>
+                  <c:v>hmmer</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>sjeng </c:v>
+                  <c:v>sjeng</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>libquantum </c:v>
+                  <c:v>libquantum</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>h264ref </c:v>
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>prob_1m_20140324!$B$2:$B$10</c:f>
+              <c:f>umc_policies!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.63050653599999995</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63248867099999995</c:v>
+                  <c:v>0.22689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.768008354</c:v>
+                  <c:v>0.44140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45241504100000002</c:v>
+                  <c:v>0.82330000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44964515500000002</c:v>
+                  <c:v>0.39529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3334763000000006E-2</c:v>
+                  <c:v>0.4148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56449198499999997</c:v>
+                  <c:v>0.49149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30033368300000002</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37764727599999998</c:v>
+                  <c:v>0.3533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46348812893673524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,11 +1298,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>prob_1m_20140324!$C$1</c:f>
+              <c:f>umc_policies!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 runs</c:v>
+                  <c:v>Source-Only Dropping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,541 +1317,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
+              <c:f>umc_policies!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
+                  <c:v>bzip2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gcc </c:v>
+                  <c:v>gcc</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mcf </c:v>
+                  <c:v>mcf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>gobmk </c:v>
+                  <c:v>gobmk</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>hmmer </c:v>
+                  <c:v>hmmer</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>sjeng </c:v>
+                  <c:v>sjeng</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>libquantum </c:v>
+                  <c:v>libquantum</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>h264ref </c:v>
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>prob_1m_20140324!$C$2:$C$10</c:f>
+              <c:f>umc_policies!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.693625504</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66887726700000005</c:v>
+                  <c:v>0.27129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80583102600000001</c:v>
+                  <c:v>0.47710000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54178158300000001</c:v>
+                  <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47519995100000001</c:v>
+                  <c:v>0.42049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.131107627</c:v>
+                  <c:v>0.44019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59718723200000001</c:v>
+                  <c:v>0.49159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31866309500000001</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41024511600000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 runs </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>prob_1m_20140324!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.71237441000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67886209900000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.819867228</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58574805600000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48799833799999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16007422700000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61081700100000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32655311100000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42178919599999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 runs </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>prob_1m_20140324!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.72145300999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68211727899999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82669529600000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61068041900000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49556322800000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17880763199999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61806134499999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33083757699999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42760513100000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 runs </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>prob_1m_20140324!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.72724078000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68347895999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83082323700000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.631983301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.501105299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.191612063</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62248626600000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33359747000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43090118999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6 runs </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>prob_1m_20140324!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.73124601099999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68431107099999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83353923799999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64384854800000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50480619100000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.200746121</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62557046100000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33560398699999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43300491899999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7 runs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>perlbench </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>prob_1m_20140324!$H$2:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.73416516899999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68480070199999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83555801500000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65672075600000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50824349899999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.207640466</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62789690899999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33722445400000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43455683099999998</c:v>
+                  <c:v>0.37880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48897001622478758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,11 +1402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155028480"/>
-        <c:axId val="155030272"/>
+        <c:axId val="153953792"/>
+        <c:axId val="153955328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155028480"/>
+        <c:axId val="153953792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155030272"/>
+        <c:crossAx val="153955328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155030272"/>
+        <c:axId val="153955328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1889,13 +1447,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155028480"/>
+        <c:crossAx val="153953792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,9 +1465,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9999902626677827E-2"/>
-          <c:y val="0.8380946959768234"/>
-          <c:w val="0.89999987016890381"/>
+          <c:x val="0.14622551791247176"/>
+          <c:y val="0.84392465489627033"/>
+          <c:w val="0.70754863959731584"/>
           <c:h val="8.6115838070366227E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1966,11 +1525,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$B$1</c:f>
+              <c:f>umc_policies!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 run</c:v>
+                  <c:v>Unrestricted Dropping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1985,29 +1544,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>umc_policies!$B$5:$J$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$B$2:$B$3</c:f>
+              <c:f>umc_policies!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.880877778</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89713333299999998</c:v>
+                  <c:v>-6.6600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5999999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,11 +1619,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$C$1</c:f>
+              <c:f>umc_policies!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 runs</c:v>
+                  <c:v>Source-Only Dropping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2037,44 +1638,305 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>umc_policies!$B$5:$J$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$C$2:$C$3</c:f>
+              <c:f>umc_policies!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.88147777800000005</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90697777800000001</c:v>
+                  <c:v>-7.2499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="154034560"/>
+        <c:axId val="154036096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154034560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="154036096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154036096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Overhead Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154034560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14622551791247176"/>
+          <c:y val="0.83226473705737647"/>
+          <c:w val="0.70754863959731584"/>
+          <c:h val="8.6115838070366227E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>prob_1m_20140324!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>prob_1m_20140324!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.63050653599999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63248867099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.768008354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45241504100000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44964515500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3334763000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56449198499999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30033368300000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37764727599999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$D$1</c:f>
+              <c:f>prob_1m_20140324!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 runs</c:v>
+                  <c:v>2 runs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2089,44 +1951,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$D$2:$D$3</c:f>
+              <c:f>prob_1m_20140324!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.882222222</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.693625504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92900000000000005</c:v>
+                  <c:v>0.66887726700000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80583102600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54178158300000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47519995100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131107627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59718723200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31866309500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41024511600000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$E$1</c:f>
+              <c:f>prob_1m_20140324!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 runs</c:v>
+                  <c:v>3 runs </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2141,44 +2045,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$E$2:$E$3</c:f>
+              <c:f>prob_1m_20140324!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.88264444399999997</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.71237441000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93252222200000001</c:v>
+                  <c:v>0.67886209900000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.819867228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58574805600000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799833799999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16007422700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61081700100000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32655311100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42178919599999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$F$1</c:f>
+              <c:f>prob_1m_20140324!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 runs</c:v>
+                  <c:v>4 runs </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2193,44 +2139,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$F$2:$F$3</c:f>
+              <c:f>prob_1m_20140324!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.88282222200000005</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.72145300999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93528888899999996</c:v>
+                  <c:v>0.68211727899999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82669529600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61068041900000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49556322800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17880763199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61806134499999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33083757699999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42760513100000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$G$1</c:f>
+              <c:f>prob_1m_20140324!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6 runs</c:v>
+                  <c:v>5 runs </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2245,44 +2233,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$G$2:$G$3</c:f>
+              <c:f>prob_1m_20140324!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.88282222200000005</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.72724078000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93853333299999997</c:v>
+                  <c:v>0.68347895999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83082323700000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.631983301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.501105299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191612063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62248626600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33359747000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43090118999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>multirun!$H$1</c:f>
+              <c:f>prob_1m_20140324!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7 runs</c:v>
+                  <c:v>6 runs </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2297,29 +2327,165 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirun!$H$2:$H$3</c:f>
+              <c:f>prob_1m_20140324!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.88286666700000005</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.73124601099999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95143333299999999</c:v>
+                  <c:v>0.68431107099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83353923799999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64384854800000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50480619100000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.200746121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62557046100000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33560398699999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43300491899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>prob_1m_20140324!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>prob_1m_20140324!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>perlbench </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>prob_1m_20140324!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.73416516899999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68480070199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83555801500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65672075600000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50824349899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.207640466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62789690899999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33722445400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43455683099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,11 +2500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155121536"/>
-        <c:axId val="155123072"/>
+        <c:axId val="154140032"/>
+        <c:axId val="154154112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155121536"/>
+        <c:axId val="154140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155123072"/>
+        <c:crossAx val="154154112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155123072"/>
+        <c:axId val="154154112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2385,7 +2551,497 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155121536"/>
+        <c:crossAx val="154140032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9999902626677827E-2"/>
+          <c:y val="0.8380946959768234"/>
+          <c:w val="0.89999987016890381"/>
+          <c:h val="8.6115838070366227E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.880877778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89713333299999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.88147777800000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90697777800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.882222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.88264444399999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93252222200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.88282222200000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93528888899999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.88282222200000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93853333299999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multirun!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirun!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unrestricted Dropping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Source-Only Dropping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirun!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.88286666700000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95143333299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="154441984"/>
+        <c:axId val="154456064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154441984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154456064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154456064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,9 +3130,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2485,16 +3141,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$B$2:$B$4</c:f>
+              <c:f>filter_mon!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.7145224509999997</c:v>
                 </c:pt>
@@ -2503,6 +3162,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.306092995</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>4.1024899960000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,9 +3194,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2543,16 +3205,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$C$2:$C$4</c:f>
+              <c:f>filter_mon!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.1271726580000001</c:v>
                 </c:pt>
@@ -2561,6 +3226,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0538627039999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>4.2436384470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2590,9 +3258,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2601,16 +3269,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$D$2:$D$4</c:f>
+              <c:f>filter_mon!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.958189</c:v>
                 </c:pt>
@@ -2619,6 +3290,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0602838000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.3686476289999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,9 +3322,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2659,16 +3333,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$E$2:$E$4</c:f>
+              <c:f>filter_mon!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.745944962</c:v>
                 </c:pt>
@@ -2677,6 +3354,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0392800820000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.649555544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,9 +3386,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2717,16 +3397,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$F$2:$F$4</c:f>
+              <c:f>filter_mon!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.6564346859999999</c:v>
                 </c:pt>
@@ -2735,6 +3418,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.1280897160000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>4.752131222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,9 +3450,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2775,16 +3461,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$G$2:$G$4</c:f>
+              <c:f>filter_mon!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.7046409450000004</c:v>
                 </c:pt>
@@ -2793,6 +3482,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.1712283459999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>5.1128366979999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,9 +3514,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2833,16 +3525,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$H$2:$H$4</c:f>
+              <c:f>filter_mon!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.7323813990000003</c:v>
                 </c:pt>
@@ -2851,6 +3546,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0885151479999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.842588873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,9 +3578,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2891,16 +3589,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$I$2:$I$4</c:f>
+              <c:f>filter_mon!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.9901219999999999</c:v>
                 </c:pt>
@@ -2909,6 +3610,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0006123099999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.143039532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,9 +3642,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -2949,16 +3653,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$J$2:$J$4</c:f>
+              <c:f>filter_mon!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.6462669849999996</c:v>
                 </c:pt>
@@ -2967,6 +3674,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.0667325050000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>6.1178188889999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,9 +3706,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>filter_mon!$A$2:$A$4</c:f>
+              <c:f>filter_mon!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>UMC</c:v>
                 </c:pt>
@@ -3007,16 +3717,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DIFT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>filter_mon!$K$2:$K$4</c:f>
+              <c:f>filter_mon!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.3061679423933619</c:v>
                 </c:pt>
@@ -3025,6 +3738,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>1.098458793150149</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>3.8211327785252749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,11 +3755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152837504"/>
-        <c:axId val="152847488"/>
+        <c:axId val="151932288"/>
+        <c:axId val="151946368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152837504"/>
+        <c:axId val="151932288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152847488"/>
+        <c:crossAx val="151946368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3060,7 +3776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152847488"/>
+        <c:axId val="151946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,7 +3814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152837504"/>
+        <c:crossAx val="151932288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,7 +3944,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3267,7 +3983,7 @@
                   <c:v>0.77370000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.85365555555555561</c:v>
+                  <c:v>0.83944202561236447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,7 +4044,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3367,7 +4083,7 @@
                   <c:v>0.79710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.86864444444444444</c:v>
+                  <c:v>0.85604382027905668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +4144,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,7 +4183,7 @@
                   <c:v>0.81840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.89304444444444442</c:v>
+                  <c:v>0.88193283798242728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,7 +4244,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3567,7 +4283,7 @@
                   <c:v>0.89059999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.94415555555555564</c:v>
+                  <c:v>0.93787541000745012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,7 +4344,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3667,7 +4383,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.97684444444444429</c:v>
+                  <c:v>0.97449853617886162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,7 +4444,7 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3767,7 +4483,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.99325555555555545</c:v>
+                  <c:v>0.99307334440866069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,11 +4498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154056192"/>
-        <c:axId val="154057728"/>
+        <c:axId val="151897600"/>
+        <c:axId val="151899136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154056192"/>
+        <c:axId val="151897600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,7 +4522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154057728"/>
+        <c:crossAx val="151899136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3814,7 +4530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154057728"/>
+        <c:axId val="151899136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3852,7 +4568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154056192"/>
+        <c:crossAx val="151897600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,18 +4631,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$2</c:f>
+              <c:f>bc!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10%</c:v>
+                  <c:v>1.1x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3941,7 +4657,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3972,46 +4688,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$2:$K$2</c:f>
+              <c:f>bc!$B$17:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27229999999999999</c:v>
+                  <c:v>0.8861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2200000000000004E-2</c:v>
+                  <c:v>0.5242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29370000000000002</c:v>
+                  <c:v>0.77649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33329999999999999</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.97319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15790000000000001</c:v>
+                  <c:v>0.81679999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36109999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79569999999999996</c:v>
+                  <c:v>0.98839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.29965555555555556</c:v>
+                  <c:v>0.77370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83944202561236447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,11 +4738,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$3</c:f>
+              <c:f>bc!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50%</c:v>
+                  <c:v>1.5x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4041,7 +4757,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4072,46 +4788,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$3:$K$3</c:f>
+              <c:f>bc!$B$18:$K$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39639999999999997</c:v>
+                  <c:v>2.9699999999999949E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1867</c:v>
+                  <c:v>2.3700000000000054E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50139999999999996</c:v>
+                  <c:v>2.0800000000000041E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7923</c:v>
+                  <c:v>2.6000000000000467E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37359999999999999</c:v>
+                  <c:v>8.0000000000000071E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32290000000000002</c:v>
+                  <c:v>2.52E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45979999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8649</c:v>
+                  <c:v>1.5000000000000568E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3775</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.47505555555555556</c:v>
+                  <c:v>2.3399999999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6601794666692204E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,11 +4838,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$4</c:f>
+              <c:f>bc!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100%</c:v>
+                  <c:v>2.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4141,7 +4857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4172,46 +4888,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$4:$K$4</c:f>
+              <c:f>bc!$B$19:$K$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50870000000000004</c:v>
+                  <c:v>3.2100000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28060000000000002</c:v>
+                  <c:v>3.1999999999999917E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>3.8900000000000046E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93579999999999997</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48859999999999998</c:v>
+                  <c:v>2.5000000000000577E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61519999999999997</c:v>
+                  <c:v>3.7600000000000078E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54349999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91669999999999996</c:v>
+                  <c:v>1.8000000000000238E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.59711111111111104</c:v>
+                  <c:v>2.1299999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5889017703370598E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,11 +4938,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$5</c:f>
+              <c:f>bc!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>300%</c:v>
+                  <c:v>4.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4241,7 +4957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4272,46 +4988,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$5:$K$5</c:f>
+              <c:f>bc!$B$20:$K$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.88749999999999996</c:v>
+                  <c:v>5.2100000000000035E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57269999999999999</c:v>
+                  <c:v>9.7700000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96970000000000001</c:v>
+                  <c:v>0.11399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83750000000000002</c:v>
+                  <c:v>7.0000000000000062E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93740000000000001</c:v>
+                  <c:v>0.10959999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89639999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99880000000000002</c:v>
+                  <c:v>7.3999999999999622E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.87808888888888903</c:v>
+                  <c:v>7.2199999999999931E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5942572025022841E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,11 +5038,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$6</c:f>
+              <c:f>bc!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500%</c:v>
+                  <c:v>6.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4341,7 +5057,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4372,46 +5088,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$6:$K$6</c:f>
+              <c:f>bc!$B$21:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81869999999999998</c:v>
+                  <c:v>0.11870000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4.9799999999999955E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4.5999999999999375E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0800000000000032E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99909999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>9.000000000000119E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.9797555555555556</c:v>
+                  <c:v>0.10940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6623126171411502E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,11 +5138,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc!$A$7</c:f>
+              <c:f>bc!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>700% Overhead</c:v>
+                  <c:v>8.0x Overhead Target</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4441,7 +5157,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$K$1</c:f>
+              <c:f>bc!$B$16:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4472,46 +5188,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$7:$K$7</c:f>
+              <c:f>bc!$B$22:$K$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.14400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3.7000000000000366E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99929999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.99992222222222216</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8574808229799067E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4526,31 +5242,31 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154295680"/>
-        <c:axId val="154305664"/>
+        <c:overlap val="100"/>
+        <c:axId val="152034688"/>
+        <c:axId val="152040576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154295680"/>
+        <c:axId val="152034688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="800"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154305664"/>
+        <c:crossAx val="152040576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4558,7 +5274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154305664"/>
+        <c:axId val="152040576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4585,11 +5301,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154295680"/>
+        <c:crossAx val="152034688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,10 +5316,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20591144795083699"/>
-          <c:y val="0.84352873660022498"/>
-          <c:w val="0.6423086850840265"/>
-          <c:h val="8.5941855761350147E-2"/>
+          <c:x val="4.9999902626677827E-2"/>
+          <c:y val="0.82651282496009193"/>
+          <c:w val="0.89999987016890381"/>
+          <c:h val="8.6077114486072429E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4659,11 +5375,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>insttype!$A$2</c:f>
+              <c:f>umc!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10% Overhead</c:v>
+                  <c:v>10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4678,7 +5394,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:f>umc!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4709,46 +5425,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insttype!$B$2:$K$2</c:f>
+              <c:f>umc!$B$2:$K$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.27229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>9.2200000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.29370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>0.33329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.15790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>0.36109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.79569999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9222222222222221E-2</c:v>
+                  <c:v>0.15870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.2520475105460887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,11 +5475,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>insttype!$A$3</c:f>
+              <c:f>umc!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50% Overhead</c:v>
+                  <c:v>50%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4778,7 +5494,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:f>umc!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4809,46 +5525,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insttype!$B$3:$K$3</c:f>
+              <c:f>umc!$B$3:$K$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.39639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.1867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.50139999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.7923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.37359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.32290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05</c:v>
+                  <c:v>0.45979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.8649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8222222222222221E-2</c:v>
+                  <c:v>0.3775</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.43276605333409968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,11 +5575,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>insttype!$A$4</c:f>
+              <c:f>umc!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% Overhead</c:v>
+                  <c:v>100%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4878,7 +5594,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:f>umc!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4909,46 +5625,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insttype!$B$4:$K$4</c:f>
+              <c:f>umc!$B$4:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.50870000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>0.28060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.93579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.48859999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.61519999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.54349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.91669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>0.46489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.56390885805454771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,11 +5675,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>insttype!$A$5</c:f>
+              <c:f>umc!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>300% Overhead</c:v>
+                  <c:v>300%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4978,7 +5694,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:f>umc!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5009,46 +5725,246 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>average</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insttype!$B$5:$K$5</c:f>
+              <c:f>umc!$B$5:$K$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0.88749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.57269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.96970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0.83750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.93740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.89639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.99880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.80279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.86745674416403484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0555555555555556E-2</c:v>
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.97792094957315912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>700% Overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.99992219801402116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,11 +5979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154248704"/>
-        <c:axId val="154250240"/>
+        <c:axId val="153373312"/>
+        <c:axId val="153379200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154248704"/>
+        <c:axId val="153373312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +6003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154250240"/>
+        <c:crossAx val="153379200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,9 +6011,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154250240"/>
+        <c:axId val="153379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5113,13 +6030,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Max</a:t>
+                  <a:t>Coverage</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Error</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5130,7 +6042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154248704"/>
+        <c:crossAx val="153373312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5187,25 +6099,24 @@
       <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>bc_policies!$A$2</c:f>
+              <c:f>umc!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                  <c:v>1.1x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5213,14 +6124,14 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc_policies!$B$1:$K$1</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5258,39 +6169,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc_policies!$B$2:$K$2</c:f>
+              <c:f>umc!$B$11:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91379999999999995</c:v>
+                  <c:v>0.27229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53779999999999994</c:v>
+                  <c:v>9.2200000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75449999999999995</c:v>
+                  <c:v>0.29370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98899999999999999</c:v>
+                  <c:v>0.33329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96160000000000001</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58260000000000001</c:v>
+                  <c:v>0.15790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.36109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9819</c:v>
+                  <c:v>0.79569999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78669999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0%">
-                  <c:v>0.81503135115597636</c:v>
+                  <c:v>0.15870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2520475105460887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5301,11 +6212,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>bc_policies!$A$3</c:f>
+              <c:f>umc!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>1.5x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5313,14 +6224,14 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc_policies!$B$1:$K$1</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5358,39 +6269,439 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc_policies!$B$3:$K$3</c:f>
+              <c:f>umc!$B$12:$K$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91190000000000004</c:v>
+                  <c:v>0.12409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81569999999999998</c:v>
+                  <c:v>9.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73550000000000004</c:v>
+                  <c:v>0.20769999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99739999999999995</c:v>
+                  <c:v>0.45900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>0.14159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99680000000000002</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>9.870000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>6.9200000000000039E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0%">
-                  <c:v>0.9136389686081553</c:v>
+                  <c:v>0.21879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18071854278801097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11230000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3900000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1799999999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7399999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13114280472044804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.37879999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4200000000000035E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2100000000000062E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30354788610948713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2599999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999789E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11046420540912427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.0x Overhead Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999997797E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2001248440862042E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,11 +6716,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154614016"/>
-        <c:axId val="154615808"/>
+        <c:overlap val="100"/>
+        <c:axId val="153539712"/>
+        <c:axId val="153541248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154614016"/>
+        <c:axId val="153539712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,7 +6730,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154615808"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153541248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5426,7 +6748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154615808"/>
+        <c:axId val="153541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5453,11 +6775,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154614016"/>
+        <c:crossAx val="153539712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5468,10 +6790,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15034765521794421"/>
-          <c:y val="0.82643477813792954"/>
-          <c:w val="0.70754863959731584"/>
-          <c:h val="8.6115838070366227E-2"/>
+          <c:x val="4.9999902626677827E-2"/>
+          <c:y val="0.82651282496009193"/>
+          <c:w val="0.89999987016890381"/>
+          <c:h val="8.6077114486072429E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5514,21 +6836,10 @@
       <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21171273267967519"/>
-          <c:y val="6.8912922085481623E-2"/>
-          <c:w val="0.7406009904545523"/>
-          <c:h val="0.5297410807835059"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -5538,11 +6849,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>bc_policies!$A$6</c:f>
+              <c:f>insttype!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unrestricted Dropping</c:v>
+                  <c:v>1.1x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5550,16 +6861,16 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc_policies!$B$5:$J$5</c:f>
+              <c:f>insttype!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5586,42 +6897,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc_policies!$B$6:$J$6</c:f>
+              <c:f>insttype!$B$2:$K$2</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.6000000000000002E-2</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7899999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38080000000000003</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.3199999999999997E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2000000000000001E-3</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.44119999999999998</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.46989999999999998</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.0000000000000001E-4</c:v>
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9222222222222221E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,11 +6949,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>bc_policies!$A$7</c:f>
+              <c:f>insttype!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Source-Only Dropping</c:v>
+                  <c:v>1.5x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5644,16 +6961,16 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc_policies!$B$5:$J$5</c:f>
+              <c:f>insttype!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5680,42 +6997,248 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc_policies!$B$7:$J$7</c:f>
+              <c:f>insttype!$B$3:$K$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.2697</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1905999999999999</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8499999999999999E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29210000000000003</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1740999999999999</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.1409</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.44119999999999998</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.18479999999999999</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10340000000000001</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8222222222222221E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>insttype!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>insttype!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>insttype!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0x Overhead Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>insttype!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>insttype!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0555555555555556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5730,20 +7253,31 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154657920"/>
-        <c:axId val="154659456"/>
+        <c:axId val="153560576"/>
+        <c:axId val="153562112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154657920"/>
+        <c:axId val="153560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="154659456"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153562112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5751,11 +7285,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154659456"/>
+        <c:axId val="153562112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
-          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5771,19 +7303,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Overhead Difference</a:t>
+                  <a:t>Max</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154657920"/>
+        <c:crossAx val="153560576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5794,10 +7330,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14622551791247176"/>
-          <c:y val="0.84392465489627033"/>
-          <c:w val="0.70754863959731584"/>
-          <c:h val="8.6115838070366227E-2"/>
+          <c:x val="0.32104768611794832"/>
+          <c:y val="0.82574900089572312"/>
+          <c:w val="0.34929647295702171"/>
+          <c:h val="8.6303983982731383E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5824,7 +7360,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId2"/>
 </c:chartSpace>
 </file>
 
@@ -5855,7 +7390,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc_policies!$A$2</c:f>
+              <c:f>bc_policies!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5874,7 +7409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc_policies!$B$1:$K$1</c:f>
+              <c:f>bc_policies!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5912,39 +7447,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc_policies!$B$2:$K$2</c:f>
+              <c:f>bc_policies!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43049999999999999</c:v>
+                  <c:v>0.91379999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22689999999999999</c:v>
+                  <c:v>0.53779999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44140000000000001</c:v>
+                  <c:v>0.75449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39529999999999998</c:v>
+                  <c:v>0.96160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4148</c:v>
+                  <c:v>0.58260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49149999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3533</c:v>
+                  <c:v>0.78669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46348812893673524</c:v>
+                  <c:v>0.81503135115597636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5955,7 +7490,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc_policies!$A$3</c:f>
+              <c:f>bc_policies!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5974,7 +7509,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc_policies!$B$1:$K$1</c:f>
+              <c:f>bc_policies!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6012,39 +7547,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc_policies!$B$3:$K$3</c:f>
+              <c:f>bc_policies!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.46389999999999998</c:v>
+                  <c:v>0.91190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27129999999999999</c:v>
+                  <c:v>0.81569999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47710000000000002</c:v>
+                  <c:v>0.73550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79049999999999998</c:v>
+                  <c:v>0.99739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42049999999999998</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44019999999999998</c:v>
+                  <c:v>0.99680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49159999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37880000000000003</c:v>
+                  <c:v>0.81559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48897001622478758</c:v>
+                  <c:v>0.9136389686081553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6059,11 +7594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154170880"/>
-        <c:axId val="154172416"/>
+        <c:axId val="153788800"/>
+        <c:axId val="153790336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154170880"/>
+        <c:axId val="153788800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,7 +7607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154172416"/>
+        <c:crossAx val="153790336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6080,7 +7615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154172416"/>
+        <c:axId val="153790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6111,7 +7646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154170880"/>
+        <c:crossAx val="153788800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6122,8 +7657,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14622551791247176"/>
-          <c:y val="0.84392465489627033"/>
+          <c:x val="0.15034765521794421"/>
+          <c:y val="0.82643477813792954"/>
           <c:w val="0.70754863959731584"/>
           <c:h val="8.6115838070366227E-2"/>
         </c:manualLayout>
@@ -6172,7 +7707,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21171273267967519"/>
+          <c:y val="6.8912922085481623E-2"/>
+          <c:w val="0.7406009904545523"/>
+          <c:h val="0.5297410807835059"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6182,7 +7727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc_policies!$A$6</c:f>
+              <c:f>bc_policies!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6201,7 +7746,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc_policies!$B$5:$J$5</c:f>
+              <c:f>bc_policies!$B$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6236,36 +7781,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc_policies!$B$6:$J$6</c:f>
+              <c:f>bc_policies!$B$6:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.6600000000000006E-2</c:v>
+                  <c:v>-9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.8999999999999999E-3</c:v>
+                  <c:v>-1.7899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10630000000000001</c:v>
+                  <c:v>-0.38080000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.09E-2</c:v>
+                  <c:v>-5.3199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.0000000000000001E-3</c:v>
+                  <c:v>2.2000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18629999999999999</c:v>
+                  <c:v>-0.44119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.2799999999999999E-2</c:v>
+                  <c:v>-0.46989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5999999999999992E-3</c:v>
+                  <c:v>-5.0000000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,7 +7821,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>umc_policies!$A$7</c:f>
+              <c:f>bc_policies!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6295,7 +7840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc_policies!$B$5:$J$5</c:f>
+              <c:f>bc_policies!$B$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6330,36 +7875,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc_policies!$B$7:$J$7</c:f>
+              <c:f>bc_policies!$B$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1900000000000001E-2</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.2499999999999995E-2</c:v>
+                  <c:v>4.1905999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0699999999999999E-2</c:v>
+                  <c:v>-1.8499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10630000000000001</c:v>
+                  <c:v>-0.29210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0800000000000001E-2</c:v>
+                  <c:v>1.1740999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.1000000000000003E-3</c:v>
+                  <c:v>15.1409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.186</c:v>
+                  <c:v>-0.44119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.6499999999999994E-2</c:v>
+                  <c:v>-0.18479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7000000000000003E-3</c:v>
+                  <c:v>0.10340000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6374,11 +7919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154845568"/>
-        <c:axId val="154847104"/>
+        <c:axId val="153801856"/>
+        <c:axId val="153803392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154845568"/>
+        <c:axId val="153801856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6387,7 +7932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="154847104"/>
+        <c:crossAx val="153803392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6395,9 +7940,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154847104"/>
+        <c:axId val="153803392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6418,14 +7965,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154845568"/>
+        <c:crossAx val="153801856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6437,7 +7983,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14622551791247176"/>
-          <c:y val="0.83226473705737647"/>
+          <c:y val="0.84392465489627033"/>
           <c:w val="0.70754863959731584"/>
           <c:h val="8.6115838070366227E-2"/>
         </c:manualLayout>
@@ -6466,6 +8012,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId2"/>
 </c:chartSpace>
 </file>
 
@@ -6485,6 +8032,30 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="325" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6493,7 +8064,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -6533,10 +8104,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="261" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -6545,7 +8116,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6557,7 +8128,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6569,10 +8140,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -6581,7 +8152,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6629,249 +8200,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927819" cy="2026460"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927838" cy="2028092"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927684" cy="2028658"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3075653" cy="2175387"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6124937" cy="2025570"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6124937" cy="2025570"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6125766" cy="2024063"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927819" cy="2026460"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927819" cy="2026460"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -7125,6 +8453,303 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="3080926" cy="2179383"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2927819" cy="2026460"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2927838" cy="2028092"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2927684" cy="2028658"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="3075653" cy="2175387"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6124937" cy="2025570"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2926839" cy="2025431"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6124937" cy="2025570"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6276731" cy="2173654"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9283,7 +10908,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="12">
         <v>4.1024899960000001</v>
@@ -9536,7 +11161,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="15">
         <v>4.1024899960000001</v>
@@ -9585,7 +11210,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K8" s="8">
         <f>1-K2/full_mon!K2</f>
@@ -9617,10 +11242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9657,7 +11282,7 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -9692,8 +11317,8 @@
         <v>0.77370000000000005</v>
       </c>
       <c r="K2" s="10">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.85365555555555561</v>
+        <f>GEOMEAN(B2:J2)</f>
+        <v>0.83944202561236447</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9728,8 +11353,8 @@
         <v>0.79710000000000003</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K7" si="0">AVERAGE(B3:J3)</f>
-        <v>0.86864444444444444</v>
+        <f t="shared" ref="K3:K7" si="0">GEOMEAN(B3:J3)</f>
+        <v>0.85604382027905668</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9765,7 +11390,7 @@
       </c>
       <c r="K4" s="10">
         <f t="shared" si="0"/>
-        <v>0.89304444444444442</v>
+        <v>0.88193283798242728</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9801,7 +11426,7 @@
       </c>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>0.94415555555555564</v>
+        <v>0.93787541000745012</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9837,7 +11462,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>0.97684444444444429</v>
+        <v>0.97449853617886162</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9873,7 +11498,7 @@
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>0.99325555555555545</v>
+        <v>0.99307334440866069</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9892,7 +11517,9 @@
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="11">
         <v>0.73089999999999999</v>
       </c>
@@ -9946,6 +11573,308 @@
         <v>0.76729999999999998</v>
       </c>
     </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8">
+        <f>B2</f>
+        <v>0.8861</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:J17" si="1">C2</f>
+        <v>0.5242</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" ref="K17" si="2">K2</f>
+        <v>0.83944202561236447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B3-B2</f>
+        <v>2.9699999999999949E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:J18" si="3">C3-C2</f>
+        <v>2.3700000000000054E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="3"/>
+        <v>2.0800000000000041E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="3"/>
+        <v>2.6000000000000467E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="3"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="3"/>
+        <v>2.3399999999999976E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" ref="K18" si="4">K3-K2</f>
+        <v>1.6601794666692204E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" ref="B19:J19" si="5">B4-B3</f>
+        <v>3.2100000000000017E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="5"/>
+        <v>3.1999999999999917E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="5"/>
+        <v>3.8900000000000046E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="5"/>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="5"/>
+        <v>3.7600000000000078E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000238E-3</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="5"/>
+        <v>2.1299999999999986E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" ref="K19" si="6">K4-K3</f>
+        <v>2.5889017703370598E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" ref="B20:J20" si="7">B5-B4</f>
+        <v>5.2100000000000035E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="7"/>
+        <v>9.7700000000000009E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="7"/>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="7"/>
+        <v>0.10959999999999992</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999622E-3</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="7"/>
+        <v>7.2199999999999931E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" ref="K20" si="8">K5-K4</f>
+        <v>5.5942572025022841E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" ref="B21:J21" si="9">B6-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="9"/>
+        <v>0.11870000000000003</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="9"/>
+        <v>4.9799999999999955E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999375E-3</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="9"/>
+        <v>1.0800000000000032E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="9"/>
+        <v>9.000000000000119E-4</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="9"/>
+        <v>0.10940000000000005</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21" si="10">K6-K5</f>
+        <v>3.6623126171411502E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:J22" si="11">B7-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="11"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="11"/>
+        <v>3.7000000000000366E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" ref="K22" si="12">K7-K6</f>
+        <v>1.8574808229799067E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9953,10 +11882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9993,7 +11922,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10028,8 +11957,8 @@
         <v>0.15870000000000001</v>
       </c>
       <c r="K2" s="10">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.29965555555555556</v>
+        <f>GEOMEAN(B2:J2)</f>
+        <v>0.2520475105460887</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10064,8 +11993,8 @@
         <v>0.3775</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K7" si="0">AVERAGE(B3:J3)</f>
-        <v>0.47505555555555556</v>
+        <f t="shared" ref="K3:K7" si="0">GEOMEAN(B3:J3)</f>
+        <v>0.43276605333409968</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -10101,7 +12030,7 @@
       </c>
       <c r="K4" s="10">
         <f t="shared" si="0"/>
-        <v>0.59711111111111104</v>
+        <v>0.56390885805454771</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10137,7 +12066,7 @@
       </c>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>0.87808888888888903</v>
+        <v>0.86745674416403484</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10173,7 +12102,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>0.9797555555555556</v>
+        <v>0.97792094957315912</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10209,7 +12138,7 @@
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>0.99992222222222216</v>
+        <v>0.99992219801402116</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -10238,6 +12167,308 @@
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="20">
+        <f>B2</f>
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:K11" si="1">C2</f>
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2520475105460887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B3-B2</f>
+        <v>0.12409999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:K12" si="2">C3-C2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20769999999999994</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.14159999999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>9.870000000000001E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>6.9200000000000039E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18071854278801097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" ref="B13:K13" si="3">B4-B3</f>
+        <v>0.11230000000000007</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="3"/>
+        <v>9.3900000000000011E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11860000000000004</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14349999999999996</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.29229999999999995</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="3"/>
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>5.1799999999999957E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="3"/>
+        <v>8.7399999999999978E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13114280472044804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" ref="B14:K14" si="4">B5-B4</f>
+        <v>0.37879999999999991</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.29209999999999997</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="4"/>
+        <v>6.4200000000000035E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34890000000000004</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.32220000000000004</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="4"/>
+        <v>8.2100000000000062E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.30354788610948713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" ref="B15:K15" si="5">B6-B5</f>
+        <v>0.11250000000000004</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.246</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0299999999999994E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="5"/>
+        <v>6.2599999999999989E-2</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.10270000000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999789E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.19720000000000004</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.11046420540912427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:K16" si="6">B7-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.18130000000000002</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="6"/>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2001248440862042E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10246,10 +12477,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10286,7 +12517,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -10297,7 +12528,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B2" s="13">
         <v>8.0000000000000002E-3</v>
@@ -10341,7 +12572,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B3" s="13">
         <v>8.0000000000000002E-3</v>
@@ -10385,7 +12616,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B4" s="13">
         <v>8.9999999999999993E-3</v>
@@ -10429,7 +12660,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B5" s="13">
         <v>7.0000000000000001E-3</v>
@@ -10472,8 +12703,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="8">
-        <v>5</v>
+      <c r="A6" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
@@ -10517,7 +12748,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
@@ -10561,29 +12792,278 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" ref="B10:K10" si="3">B2-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="3"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" ref="C11:K11" si="4">C3-C4</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999983E-3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" ref="B12:K12" si="5">B4-B5</f>
+        <v>1.9999999999999992E-3</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="5"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" ref="B13:K13" si="6">B5-B6</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="6"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="6"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="6"/>
+        <v>1.0555555555555556E-2</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="14">
+        <f t="shared" ref="B14:K14" si="7">B6</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10595,15 +13075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -10644,33 +13124,33 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.91379999999999995</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>0.53779999999999994</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="8">
         <v>0.75449999999999995</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="8">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="8">
         <v>0.96160000000000001</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="8">
         <v>0.58260000000000001</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="8">
         <v>0.9819</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="8">
         <v>0.78669999999999995</v>
       </c>
       <c r="K2" s="8">
@@ -10688,33 +13168,33 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.91190000000000004</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>0.81569999999999998</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>0.73550000000000004</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>0.99739999999999995</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>0.99680000000000002</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <v>0.81559999999999999</v>
       </c>
       <c r="K3" s="8">
@@ -10732,7 +13212,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -10762,7 +13242,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -10773,7 +13253,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9">
         <v>0.04</v>
@@ -10817,7 +13297,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9">
         <v>0.2697</v>
@@ -10861,7 +13341,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10924,7 +13404,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10987,7 +13467,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11050,7 +13530,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11120,8 +13600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11166,7 +13646,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8">
         <v>0.43049999999999999</v>
@@ -11210,7 +13690,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8">
         <v>0.46389999999999998</v>
@@ -11266,7 +13746,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -11296,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -11307,7 +13787,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8">
         <v>1.15E-2</v>
@@ -11351,7 +13831,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8">
         <v>1.1900000000000001E-2</v>
@@ -11395,7 +13875,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11458,7 +13938,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11521,7 +14001,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11584,7 +14064,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11662,33 +14142,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <v>0.63050653599999995</v>
@@ -11714,7 +14194,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8">
         <v>0.63248867099999995</v>
@@ -11740,7 +14220,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8">
         <v>0.768008354</v>
@@ -11766,7 +14246,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8">
         <v>0.45241504100000002</v>
@@ -11792,7 +14272,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
         <v>0.44964515500000002</v>
@@ -11818,7 +14298,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <v>8.3334763000000006E-2</v>
@@ -11844,7 +14324,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8">
         <v>0.56449198499999997</v>
@@ -11870,7 +14350,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8">
         <v>0.30033368300000002</v>
@@ -11896,7 +14376,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>0.37764727599999998</v>
@@ -11922,7 +14402,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <v>0.51706337700000005</v>
@@ -11948,7 +14428,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8">
         <v>0.43489773500000001</v>
@@ -11974,7 +14454,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8">
         <v>0.60911294199999999</v>
@@ -12015,30 +14495,30 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8">
         <v>0.880877778</v>
@@ -12068,7 +14548,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8">
         <v>0.89713333299999998</v>

--- a/figs_src/data_all_hpca.xlsx
+++ b/figs_src/data_all_hpca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="-15" windowWidth="7980" windowHeight="8970" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="7905" yWindow="-15" windowWidth="7980" windowHeight="8970" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="4" r:id="rId1"/>
@@ -262,10 +262,10 @@
     <t>8.0x Overhead Target</t>
   </si>
   <si>
-    <t>4.0x Overhead Target</t>
+    <t>6.0x Overhead Target</t>
   </si>
   <si>
-    <t>6.0x Overhead Target</t>
+    <t>8.0x</t>
   </si>
 </sst>
 </file>
@@ -1402,11 +1402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153953792"/>
-        <c:axId val="153955328"/>
+        <c:axId val="153958272"/>
+        <c:axId val="153959808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153953792"/>
+        <c:axId val="153958272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153955328"/>
+        <c:crossAx val="153959808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153955328"/>
+        <c:axId val="153959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1454,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153953792"/>
+        <c:crossAx val="153958272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,11 +1717,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154034560"/>
-        <c:axId val="154036096"/>
+        <c:axId val="158233344"/>
+        <c:axId val="158234880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154034560"/>
+        <c:axId val="158233344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="154036096"/>
+        <c:crossAx val="158234880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1738,7 +1738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154036096"/>
+        <c:axId val="158234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,13 +1761,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154034560"/>
+        <c:crossAx val="158233344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,11 +2501,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154140032"/>
-        <c:axId val="154154112"/>
+        <c:axId val="158334336"/>
+        <c:axId val="153105536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154140032"/>
+        <c:axId val="158334336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154154112"/>
+        <c:crossAx val="153105536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154154112"/>
+        <c:axId val="153105536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2551,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154140032"/>
+        <c:crossAx val="158334336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2990,11 +2991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154441984"/>
-        <c:axId val="154456064"/>
+        <c:axId val="158640384"/>
+        <c:axId val="158654464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154441984"/>
+        <c:axId val="158640384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,7 +3004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154456064"/>
+        <c:crossAx val="158654464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3011,7 +3012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154456064"/>
+        <c:axId val="158654464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3041,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154441984"/>
+        <c:crossAx val="158640384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3755,11 +3756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151932288"/>
-        <c:axId val="151946368"/>
+        <c:axId val="152980864"/>
+        <c:axId val="152994944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151932288"/>
+        <c:axId val="152980864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151946368"/>
+        <c:crossAx val="152994944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3776,7 +3777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151946368"/>
+        <c:axId val="152994944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,7 +3815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151932288"/>
+        <c:crossAx val="152980864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4498,11 +4499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151897600"/>
-        <c:axId val="151899136"/>
+        <c:axId val="151901696"/>
+        <c:axId val="151903232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151897600"/>
+        <c:axId val="151901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,7 +4523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151899136"/>
+        <c:crossAx val="151903232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4530,7 +4531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151899136"/>
+        <c:axId val="151903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4568,7 +4569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151897600"/>
+        <c:crossAx val="151901696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5142,7 +5143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.0x Overhead Target</c:v>
+                  <c:v>8.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5243,11 +5244,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="152034688"/>
-        <c:axId val="152040576"/>
+        <c:axId val="153083264"/>
+        <c:axId val="153089152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152034688"/>
+        <c:axId val="153083264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5266,7 +5267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152040576"/>
+        <c:crossAx val="153089152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5274,7 +5275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152040576"/>
+        <c:axId val="153089152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5298,14 +5299,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152034688"/>
+        <c:crossAx val="153083264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5979,11 +5979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153373312"/>
-        <c:axId val="153379200"/>
+        <c:axId val="153312256"/>
+        <c:axId val="153318144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153373312"/>
+        <c:axId val="153312256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,7 +6003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153379200"/>
+        <c:crossAx val="153318144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6011,7 +6011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153379200"/>
+        <c:axId val="153318144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6035,14 +6035,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153373312"/>
+        <c:crossAx val="153312256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6616,7 +6615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.0x Overhead Target</c:v>
+                  <c:v>8.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6717,11 +6716,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="153539712"/>
-        <c:axId val="153541248"/>
+        <c:axId val="153478272"/>
+        <c:axId val="153479808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153539712"/>
+        <c:axId val="153478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6740,7 +6739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153541248"/>
+        <c:crossAx val="153479808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6748,7 +6747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153541248"/>
+        <c:axId val="153479808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6772,14 +6771,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153539712"/>
+        <c:crossAx val="153478272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7153,7 +7151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0x Overhead Target</c:v>
+                  <c:v>4.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7253,11 +7251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153560576"/>
-        <c:axId val="153562112"/>
+        <c:axId val="153496960"/>
+        <c:axId val="153506944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153560576"/>
+        <c:axId val="153496960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7277,7 +7275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153562112"/>
+        <c:crossAx val="153506944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7285,7 +7283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153562112"/>
+        <c:axId val="153506944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7313,13 +7311,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153560576"/>
+        <c:crossAx val="153496960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7331,7 +7330,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32104768611794832"/>
-          <c:y val="0.82574900089572312"/>
+          <c:y val="0.77555293486418164"/>
           <c:w val="0.34929647295702171"/>
           <c:h val="8.6303983982731383E-2"/>
         </c:manualLayout>
@@ -7594,11 +7593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153788800"/>
-        <c:axId val="153790336"/>
+        <c:axId val="153753856"/>
+        <c:axId val="153796608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153788800"/>
+        <c:axId val="153753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7607,7 +7606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153790336"/>
+        <c:crossAx val="153796608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7615,7 +7614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153790336"/>
+        <c:axId val="153796608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7646,7 +7645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153788800"/>
+        <c:crossAx val="153753856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7919,11 +7918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153801856"/>
-        <c:axId val="153803392"/>
+        <c:axId val="153843200"/>
+        <c:axId val="153844736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153801856"/>
+        <c:axId val="153843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7932,7 +7931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153803392"/>
+        <c:crossAx val="153844736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7940,7 +7939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153803392"/>
+        <c:axId val="153844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -7965,13 +7964,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153801856"/>
+        <c:crossAx val="153843200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8032,7 +8032,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8044,7 +8044,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8104,7 +8104,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="261" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8128,7 +8128,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8140,7 +8140,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8164,7 +8164,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="298" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8459,7 +8459,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3080926" cy="2179383"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8486,7 +8486,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927819" cy="2026460"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8621,7 +8621,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2926839" cy="2025431"/>
+    <xdr:ext cx="3080926" cy="2179383"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8675,7 +8675,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927106" cy="2025894"/>
+    <xdr:ext cx="3080926" cy="2179383"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8702,7 +8702,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6276731" cy="2173654"/>
+    <xdr:ext cx="6125766" cy="2024063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8756,7 +8756,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2927819" cy="2026460"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11245,7 +11245,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" ref="B22:J22" si="11">B7-B6</f>
@@ -11885,7 +11885,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" ref="B16:K16" si="6">B7-B6</f>
@@ -12471,7 +12471,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12660,7 +12660,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13">
         <v>7.0000000000000001E-3</v>
@@ -13017,7 +13017,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="14">
         <f t="shared" ref="B14:K14" si="7">B6</f>
@@ -13075,7 +13075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
